--- a/biology/Médecine/Cavernome_cérébral_héréditaire/Cavernome_cérébral_héréditaire.xlsx
+++ b/biology/Médecine/Cavernome_cérébral_héréditaire/Cavernome_cérébral_héréditaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cavernome_c%C3%A9r%C3%A9bral_h%C3%A9r%C3%A9ditaire</t>
+          <t>Cavernome_cérébral_héréditaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les cavernomes cérébraux héréditaires sont des malformations vasculaires consistant en l'existence de groupes de petits vaisseaux constitués par une unique couche d'épithélium sans autre formation tissulaire habituellement présent dans le vaisseau. Ces grappes vasculaires se localisent principalement dans le cerveau. Le parenchyme cérébral entourant ces vaisseaux est strictement normal. La taille de ces vaisseaux va de un millimètre à plusieurs centimètres.
@@ -499,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cavernome_c%C3%A9r%C3%A9bral_h%C3%A9r%C3%A9ditaire</t>
+          <t>Cavernome_cérébral_héréditaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,9 +529,11 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>(en) Eric W Johnson, Cerebral Cavernous Malformation, Familial In GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 [1]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(en) Eric W Johnson, Cerebral Cavernous Malformation, Familial In GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 </t>
         </is>
       </c>
     </row>
